--- a/movimientos_pesos.xlsx
+++ b/movimientos_pesos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,21 +463,1827 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>156</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>156</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28/10/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO EXPRES</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>330.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DISA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KINKO</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>231</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>156</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29/10/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PedidosYa*Envios Mon</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>199</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PedidosYa*Propina</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SUPER CHIBERTA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>961</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LEGACY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>390.01</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NUNEZ TRANSPORTE Y T</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2466</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KINKO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>666</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>30/10/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LA MOLIENDA CONVENCI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BIMBA BRUDER AV SALT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DLO*RedTickets SAS -</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SAN ROQUE PAYSANDU</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>218</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PIGALLE PAYSANDU</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>139</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PARIS LONDRES BEER H</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>820</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PARIS LONDRES BEER H</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1215</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>60.49</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>89.63</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PARIS LONDRES BEER H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ALTAR COMEDOR</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>560</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1141.35</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PIGALLE PAYSANDU</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>264</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>La Vaca Negra*HANDY*</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>705</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SUPERMERCADO EXPRES</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1702.21</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ANCAP CYNEL SA</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>151</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ANCAP CYNEL SA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2571</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FRUTERIA EL REPECHO</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>556</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BAMBOO *TiendaMia L2</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2552.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MERPAGO*GLOBALSPORTS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2196</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>STARBUCKS COFFEE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>221</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2029.09</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TICKANTEL 1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>06/11/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RECIBO DE PAGO</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88453.66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SUPER COOPERATIVA PO</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2316</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GRANJA EL VAIVEN I</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>500</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DISA MISUROL</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2569.7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NUEVO MERCADO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>156</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TELEPEAJE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>156</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ESCUELA DE CERAMICA</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>852</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10% pta carretas sho</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>229.63</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10% pta carretas sho</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>674.2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10% pta carretas sho</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SOUL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3371</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DROGUERIA MONTEVIDEO</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>700</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FONDO DE SOLIDARIDAD</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1096</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FONDO DE SOLIDARIDAD</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>457</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>JYSK PUNTA CARRETAS</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>818</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BAS BASIC &amp; SIMPLE</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2296.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ESCARAPPELA CAFE</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SUPER COOPERATIVA PO</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2647</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DISCO N? 17</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KINKO</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>675</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MERPAGO*COPAY</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1253</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LUDOVICO</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>670</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>49.43</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LA MOLIENDA CONVENCI</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>213</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ESCUELA DE CERAMICA</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EL BAR SHOPPING</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>160</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>365</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SUPER CHIBERTA</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>102</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DISCO N? 9</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2177.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WIKIMUSCULOS 18 DE J</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1643</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GRANJA EL VAIVEN I</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>701</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MC DONALD'S</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>827</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>KINKO</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>326</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MERCADITO EL POPULAR</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1428</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LA MOLIENDA CONVENCI</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SUPER COOPERATIVA PO</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3364</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>KINKO</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>395</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ZARA PUNTA CARRETAS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3645</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GRANJA EL VAIVEN I</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>330</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CARNICERIA EL REMANS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>826</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FLOR DE KAFFEE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>REDUC. IVA LEY 17934</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>93.69</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GRANJA EL VAIVEN I</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>591</v>
+      </c>
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>

--- a/movimientos_pesos.xlsx
+++ b/movimientos_pesos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,19 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>20/11/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TELEPEAJE</t>
+          <t>KINKO</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -484,19 +484,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TELEPEAJE</t>
+          <t>SALA DEL MUSEO BARRA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -505,19 +505,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TELEPEAJE</t>
+          <t>ANCAP LA PAZ</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>156</v>
+        <v>2680</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -526,19 +526,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TELEPEAJE</t>
+          <t>PAUSAT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>156</v>
+        <v>1140</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -547,294 +547,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WIKIMUSCULOS 18 DE J</t>
+          <t>REDUC. IVA LEY 17934</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>1643</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>14/11/2025</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GRANJA EL VAIVEN I</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>701</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14/11/2025</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MC DONALD'S</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>827</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>14/11/2025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>REDUC. IVA LEY 17934</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>61.01</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>15/11/2025</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KINKO</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>326</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>15/11/2025</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MERCADITO EL POPULAR</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1428</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>15/11/2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LA MOLIENDA CONVENCI</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>241.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SUPER COOPERATIVA PO</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3364</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>KINKO</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>395</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GRANJA EL VAIVEN I</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>330</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>18/11/2025</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CARNICERIA EL REMANS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>826</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>19/11/2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FLOR DE KAFFEE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1370</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>19/11/2025</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>REDUC. IVA LEY 17934</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>93.69</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>19/11/2025</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GRANJA EL VAIVEN I</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>591</v>
-      </c>
-      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
